--- a/nuon/instagram_comments_suzyunnee.xlsx
+++ b/nuon/instagram_comments_suzyunnee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,6 +699,1195 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DFevBWJzfDg</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>18049496030237819</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ㅓ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1739904684</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>39631690346</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>popoto238</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>ohjs</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DFevBWJzfDg</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18092357350526660</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ㅓ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1739904682</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>39631690346</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>popoto238</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>ohjs</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DFevBWJzfDg</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18069267682833692</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1739904460</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>39631690346</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>popoto238</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>ohjs</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DFMUnwBTyYS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17941138547957180</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>혹시 슬릿 기모팬츠 크림색상은 재입고 안되나요?ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1737771053</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>8710162486</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>luriravibe</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>루리라</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DFMUbVVTNUq</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18267664177270581</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>재킷 안에 이너도 판매중일까요?</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1737711644</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>8260044849</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>choi._.gi</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>GI YEON</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DFHrOe3zh4Y</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>17937913916971672</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>코코아 컬러도 진짜 예쁜데 사진 컬러가 안 잡혀서 톤이 안 예쁘게 나왔는데 코코아 컬러 실물톤 정말 고급스럽고 멋스러워서 추천드립니다👍🏼💜</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1737939384</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>25837814</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>suzyunnee</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>안수지</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DFHrOe3zh4Y</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>18374223403119772</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>이코트네이비재입고언제되나요? 이번에안되면 다음겨울엔가능하겠죠?놓쳐서아쉬워요😢</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1737854496</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>3257308749</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>mskhope_</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Minseo Kim</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DFHrOe3zh4Y</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>18065962360877751</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>어깨에 올린 카멜색 가디건은 어떤 제품인지 알 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1737607323</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>40622138603</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>heekyung_0420</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>이희경</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DFHrOe3zh4Y</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>18039276875460523</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>스커트 이름 알려주세요!@</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1737602352</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>40622138603</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>heekyung_0420</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>이희경</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DE3usKsTlbl</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>18014529797667802</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>요  가방은  판매하시는 건가요?</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1737357781</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>55102477661</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>lafleur_sunny_kim</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>_lafleurshop</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DE3uQW9T6y0</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>18037309811457316</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>방가워요</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1737711694</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>10499818597</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>eungyeong316</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>러블리몽몽 진동# 055271-5112#서은경</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DE3t4vpzLg0</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>18183271261310489</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>가방 판매하시나요?</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1738636809</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>7017976911</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>pilates_syeon</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>ᴘʟɪᴀᴛᴇꜱ ɪɴꜱᴛʀᴜᴄᴛᴏʀ ㅣ승연</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DE3t4vpzLg0</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>17999945891566347</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>가방 제작하시나요?</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1738142061</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>4767124422</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>yunjeong_choi76</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>최윤정</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DE3t4vpzLg0</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>18019746275407299</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>가방은 어디 제품일까용?!</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1737015004</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>54821841848</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>r_o_e___</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DEjD84RTv69</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>18282614008221410</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>바이올렛 .m .언제 입고 되나요??</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1737361130</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>12429255202</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>kim.gyung.min</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>김경민</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>DEgzd1YzaMJ</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>18265788718248526</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>요고 베이지색상 재입고안되나용?ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1737390854</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>259290728</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>fany_diary</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>ʜᴡᴀɴʜᴇᴇ ᴘᴀʀᴋ</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DEgzd1YzaMJ</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>18292399390214372</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>로로피아홀가먼트 원피스 베이지 M사이즈 재입고 해쥬세영❤️</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1736384326</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>7275239271</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>sjorgan79</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>soojin🌷</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DD85Hmfziim</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>18042079973077521</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>안녕하세요 지금 막 구매하려는데 품절이 떠서 확인 부탁드려도될까요ㅠ</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1737469868</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>4538167268</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>21gmath</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>이원지</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DDyj642zcZL</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>18058504141927602</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>퍼아우터 재입고 안되나요😢</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1734988289</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>6302655708</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>j.i.w.o.o_</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>지우 🌹</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
